--- a/templates/4COM05_Imaging/4COM05_Imaging.xlsx
+++ b/templates/4COM05_Imaging/4COM05_Imaging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM05_Imaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91873D5-5680-4565-B672-BCE10DBF4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E09C9B-2421-406B-ABEB-F75C7CD0EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t>Source Name</t>
   </si>
@@ -230,9 +230,6 @@
     <t>annotationTableHungryBaboon76</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Template that describes the computational working steps for imaging-related research.</t>
   </si>
   <si>
@@ -405,13 +402,25 @@
   </si>
   <si>
     <t>MATLAB</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_8735</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,12 +435,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -937,7 +940,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="612" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="646" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="610" row="3">
@@ -984,16 +987,16 @@
     <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="104.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="40.5703125" bestFit="1" customWidth="1"/>
@@ -1084,44 +1087,122 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
       </c>
       <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" t="s">
         <v>109</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
         <v>111</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" t="s">
         <v>112</v>
       </c>
-      <c r="W2" t="s">
-        <v>113</v>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
       </c>
       <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" t="s">
         <v>114</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1167,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1175,7 +1256,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,10 +1290,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1321,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,7 +1352,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1360,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,40 +1453,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1429,28 +1510,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L3" s="14"/>
     </row>
@@ -1459,28 +1540,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L4" s="14"/>
     </row>
@@ -1489,28 +1570,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L5" s="14"/>
     </row>
@@ -1519,28 +1600,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L6" s="14"/>
     </row>
@@ -1549,28 +1630,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -1579,28 +1660,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L8" s="14"/>
     </row>
@@ -1609,28 +1690,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L9" s="14"/>
     </row>
@@ -1639,28 +1720,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="L10" s="14"/>
     </row>
@@ -1709,40 +1790,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1766,28 +1847,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="14"/>
     </row>
@@ -1796,28 +1877,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" s="14"/>
     </row>
@@ -1826,28 +1907,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="14"/>
     </row>
@@ -1856,28 +1937,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="14"/>
     </row>
@@ -1886,28 +1967,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -1916,28 +1997,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="14"/>
     </row>
@@ -1946,28 +2027,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="14"/>
     </row>
@@ -1976,28 +2057,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10" s="14"/>
     </row>
